--- a/tables/DE/SDE_rand_1_bin_F_09_Cr_09_pop50/DE_table2_F2_dim30.xlsx
+++ b/tables/DE/SDE_rand_1_bin_F_09_Cr_09_pop50/DE_table2_F2_dim30.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="53">
-  <si>
-    <t>Gen</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="52">
+  <si>
+    <t>MaxFES</t>
   </si>
   <si>
     <t>Run  0</t>
@@ -167,9 +167,6 @@
   </si>
   <si>
     <t>Run 49</t>
-  </si>
-  <si>
-    <t>Run 50</t>
   </si>
   <si>
     <t>Mean</t>
@@ -526,7 +523,7 @@
     <s:outlinePr summaryBelow="1" summaryRight="1"/>
     <s:pageSetUpPr/>
   </s:sheetPr>
-  <dimension ref="A1:BA14"/>
+  <dimension ref="A1:AZ14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -534,7 +531,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:53">
+    <row r="1" spans="1:52">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -691,11 +688,8 @@
       <c r="AZ1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" s="1" t="s">
-        <v>52</v>
-      </c>
     </row>
-    <row r="2" spans="1:53">
+    <row r="2" spans="1:52">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
@@ -850,15 +844,12 @@
         <v>169300687306.3748</v>
       </c>
       <c r="AZ2" t="n">
-        <v>137972421143.577</v>
-      </c>
-      <c r="BA2" t="n">
-        <v>150862198169.9363</v>
+        <v>151119993710.4635</v>
       </c>
     </row>
-    <row r="3" spans="1:53">
+    <row r="3" spans="1:52">
       <c r="A3" s="1" t="n">
-        <v>6</v>
+        <v>0.001</v>
       </c>
       <c r="B3" t="n">
         <v>148932815811.8942</v>
@@ -1011,15 +1002,12 @@
         <v>161893920931.6998</v>
       </c>
       <c r="AZ3" t="n">
-        <v>137972421143.577</v>
-      </c>
-      <c r="BA3" t="n">
-        <v>150022293764.3472</v>
+        <v>150263291216.7626</v>
       </c>
     </row>
-    <row r="4" spans="1:53">
+    <row r="4" spans="1:52">
       <c r="A4" s="1" t="n">
-        <v>60</v>
+        <v>0.01</v>
       </c>
       <c r="B4" t="n">
         <v>132341938450.9011</v>
@@ -1172,15 +1160,12 @@
         <v>119618732068.5059</v>
       </c>
       <c r="AZ4" t="n">
-        <v>108429141559.1483</v>
-      </c>
-      <c r="BA4" t="n">
-        <v>119881827521.3209</v>
+        <v>120110881240.5643</v>
       </c>
     </row>
-    <row r="5" spans="1:53">
+    <row r="5" spans="1:52">
       <c r="A5" s="1" t="n">
-        <v>600</v>
+        <v>0.1</v>
       </c>
       <c r="B5" t="n">
         <v>28248155554.32953</v>
@@ -1333,15 +1318,12 @@
         <v>34821425331.3366</v>
       </c>
       <c r="AZ5" t="n">
-        <v>37843498608.53579</v>
-      </c>
-      <c r="BA5" t="n">
-        <v>38202617246.30645</v>
+        <v>38209799619.06186</v>
       </c>
     </row>
-    <row r="6" spans="1:53">
+    <row r="6" spans="1:52">
       <c r="A6" s="1" t="n">
-        <v>1200</v>
+        <v>0.2</v>
       </c>
       <c r="B6" t="n">
         <v>10660909388.82056</v>
@@ -1494,15 +1476,12 @@
         <v>5229600708.622406</v>
       </c>
       <c r="AZ6" t="n">
-        <v>9287299094.312292</v>
-      </c>
-      <c r="BA6" t="n">
-        <v>12217934923.59918</v>
+        <v>12276547640.18491</v>
       </c>
     </row>
-    <row r="7" spans="1:53">
+    <row r="7" spans="1:52">
       <c r="A7" s="1" t="n">
-        <v>1799</v>
+        <v>0.3</v>
       </c>
       <c r="B7" t="n">
         <v>3216489990.879898</v>
@@ -1655,15 +1634,12 @@
         <v>1087812992.5385</v>
       </c>
       <c r="AZ7" t="n">
-        <v>1891457835.541052</v>
-      </c>
-      <c r="BA7" t="n">
-        <v>3094390291.281332</v>
+        <v>3118448940.396138</v>
       </c>
     </row>
-    <row r="8" spans="1:53">
+    <row r="8" spans="1:52">
       <c r="A8" s="1" t="n">
-        <v>2399</v>
+        <v>0.4</v>
       </c>
       <c r="B8" t="n">
         <v>726575945.4100469</v>
@@ -1816,15 +1792,12 @@
         <v>180297059.622215</v>
       </c>
       <c r="AZ8" t="n">
-        <v>590785889.0459859</v>
-      </c>
-      <c r="BA8" t="n">
-        <v>697970338.4370551</v>
+        <v>700114027.4248766</v>
       </c>
     </row>
-    <row r="9" spans="1:53">
+    <row r="9" spans="1:52">
       <c r="A9" s="1" t="n">
-        <v>2999</v>
+        <v>0.5</v>
       </c>
       <c r="B9" t="n">
         <v>97147654.78110944</v>
@@ -1977,15 +1950,12 @@
         <v>48393127.80190069</v>
       </c>
       <c r="AZ9" t="n">
-        <v>115703990.6267645</v>
-      </c>
-      <c r="BA9" t="n">
-        <v>158802761.6433253</v>
+        <v>159664737.0636565</v>
       </c>
     </row>
-    <row r="10" spans="1:53">
+    <row r="10" spans="1:52">
       <c r="A10" s="1" t="n">
-        <v>3599</v>
+        <v>0.6</v>
       </c>
       <c r="B10" t="n">
         <v>29279289.90813487</v>
@@ -2138,15 +2108,12 @@
         <v>7726009.05118422</v>
       </c>
       <c r="AZ10" t="n">
-        <v>28924765.3847596</v>
-      </c>
-      <c r="BA10" t="n">
-        <v>39892083.95853402</v>
+        <v>40111430.33000951</v>
       </c>
     </row>
-    <row r="11" spans="1:53">
+    <row r="11" spans="1:52">
       <c r="A11" s="1" t="n">
-        <v>4199</v>
+        <v>0.7</v>
       </c>
       <c r="B11" t="n">
         <v>6350892.52590756</v>
@@ -2299,15 +2266,12 @@
         <v>2332786.87140734</v>
       </c>
       <c r="AZ11" t="n">
-        <v>7933823.64426641</v>
-      </c>
-      <c r="BA11" t="n">
-        <v>9903221.696748091</v>
+        <v>9942609.65779773</v>
       </c>
     </row>
-    <row r="12" spans="1:53">
+    <row r="12" spans="1:52">
       <c r="A12" s="1" t="n">
-        <v>4798</v>
+        <v>0.8</v>
       </c>
       <c r="B12" t="n">
         <v>2308248.29289097</v>
@@ -2460,15 +2424,12 @@
         <v>479208.15199707</v>
       </c>
       <c r="AZ12" t="n">
-        <v>2362920.40547767</v>
-      </c>
-      <c r="BA12" t="n">
-        <v>2384093.15001977</v>
+        <v>2384516.60491061</v>
       </c>
     </row>
-    <row r="13" spans="1:53">
+    <row r="13" spans="1:52">
       <c r="A13" s="1" t="n">
-        <v>5398</v>
+        <v>0.9</v>
       </c>
       <c r="B13" t="n">
         <v>645681.3246014901</v>
@@ -2621,15 +2582,12 @@
         <v>139157.01799004</v>
       </c>
       <c r="AZ13" t="n">
-        <v>645198.7679502</v>
-      </c>
-      <c r="BA13" t="n">
-        <v>680601.29577636</v>
+        <v>681309.34633288</v>
       </c>
     </row>
-    <row r="14" spans="1:53">
+    <row r="14" spans="1:52">
       <c r="A14" s="1" t="n">
-        <v>5998</v>
+        <v>1</v>
       </c>
       <c r="B14" t="n">
         <v>187531.27613563</v>
@@ -2782,10 +2740,7 @@
         <v>35375.84557789</v>
       </c>
       <c r="AZ14" t="n">
-        <v>137040.27896502</v>
-      </c>
-      <c r="BA14" t="n">
-        <v>171745.29334471</v>
+        <v>172439.3936323</v>
       </c>
     </row>
   </sheetData>
